--- a/story/Main Story and Others 主线剧情等/guide 导航文字/l0-6/0_upgrade_skill.xlsx
+++ b/story/Main Story and Others 主线剧情等/guide 导航文字/l0-6/0_upgrade_skill.xlsx
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] …as well as how to view Operator information.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_sys")] ...as well as how to view Operator information.
 </t>
   </si>
   <si>
